--- a/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A27EE9-503E-4DA3-A980-64692A9D0734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035008D-9910-430F-88EC-6122FB255D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="225">
   <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,409 @@
   </si>
   <si>
     <t>监测信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_TOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压水ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDPH_ID</t>
+  </si>
+  <si>
+    <t>钻孔ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCA_ID</t>
+  </si>
+  <si>
+    <t>位置ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRA_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地层ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_TOPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_STAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察点深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_WATT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含水层名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_LAYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水量数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_OBST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察时间‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCG</t>
+  </si>
+  <si>
+    <t>承压水埋深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_ID</t>
+  </si>
+  <si>
+    <t>工程ID</t>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X坐标</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Y坐标</t>
+  </si>
+  <si>
+    <t>DOCG_DEPT</t>
+  </si>
+  <si>
+    <t>埋深</t>
+  </si>
+  <si>
+    <t>DOCG_MEMO</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>关联文件索引</t>
+  </si>
+  <si>
+    <t>DOUG</t>
+  </si>
+  <si>
+    <t>潜水埋深</t>
+  </si>
+  <si>
+    <t>DOUG_DEPT</t>
+  </si>
+  <si>
+    <t>DOUG_MEMO</t>
+  </si>
+  <si>
+    <t>GWSO</t>
+  </si>
+  <si>
+    <t>地下水质</t>
+  </si>
+  <si>
+    <t>GWSO_METI</t>
+  </si>
+  <si>
+    <t>测量时间</t>
+  </si>
+  <si>
+    <t>LOCA_Z</t>
+  </si>
+  <si>
+    <t>Z坐标</t>
+  </si>
+  <si>
+    <t>GWSO_POLL</t>
+  </si>
+  <si>
+    <t>污染物名称</t>
+  </si>
+  <si>
+    <t>GWSO_CONT</t>
+  </si>
+  <si>
+    <t>污染物含量</t>
+  </si>
+  <si>
+    <t>IMAR</t>
+  </si>
+  <si>
+    <t>重要建筑物</t>
+  </si>
+  <si>
+    <t>IMAR_NAME</t>
+  </si>
+  <si>
+    <t>建筑物名称</t>
+  </si>
+  <si>
+    <t>IMAR_USE</t>
+  </si>
+  <si>
+    <t>建筑物用途</t>
+  </si>
+  <si>
+    <t>IMAR_NRRV</t>
+  </si>
+  <si>
+    <t>距离最近的河流</t>
+  </si>
+  <si>
+    <t>LOCA_WATA</t>
+  </si>
+  <si>
+    <t>地下水位</t>
+  </si>
+  <si>
+    <t>LOCA_DEOG</t>
+  </si>
+  <si>
+    <t>地下水埋深</t>
+  </si>
+  <si>
+    <t>IMAR_REM</t>
+  </si>
+  <si>
+    <t>PLRO</t>
+  </si>
+  <si>
+    <t>植被根系</t>
+  </si>
+  <si>
+    <t>PLRO_NAME</t>
+  </si>
+  <si>
+    <t>植被名称</t>
+  </si>
+  <si>
+    <t>PLRO_LEOR</t>
+  </si>
+  <si>
+    <t>根长</t>
+  </si>
+  <si>
+    <t>PLRO_TYPE</t>
+  </si>
+  <si>
+    <t>根系类型</t>
+  </si>
+  <si>
+    <t>PLRO_USE</t>
+  </si>
+  <si>
+    <t>根系作用</t>
+  </si>
+  <si>
+    <t>PLRO_REM</t>
+  </si>
+  <si>
+    <t>SWQU</t>
+  </si>
+  <si>
+    <t>地表水质</t>
+  </si>
+  <si>
+    <t>SWQU_METI</t>
+  </si>
+  <si>
+    <t>SWQU_POLL</t>
+  </si>
+  <si>
+    <t>SWQU_CONT</t>
+  </si>
+  <si>
+    <t>SWSO</t>
+  </si>
+  <si>
+    <t>地表水源</t>
+  </si>
+  <si>
+    <t>SWSO_NAME</t>
+  </si>
+  <si>
+    <t>水源名称</t>
+  </si>
+  <si>
+    <t>SWSO_LOCA</t>
+  </si>
+  <si>
+    <t>地理位置</t>
+  </si>
+  <si>
+    <t>SWSO_SYS</t>
+  </si>
+  <si>
+    <t>所属水系</t>
+  </si>
+  <si>
+    <t>SWSO_LENG</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水源长度</t>
+  </si>
+  <si>
+    <t>SWSO_CFAR</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>汇流面积</t>
+  </si>
+  <si>
+    <t>TUEG</t>
+  </si>
+  <si>
+    <t>开挖洞渣</t>
+  </si>
+  <si>
+    <t>TUEG_COMP</t>
+  </si>
+  <si>
+    <t>洞渣主要成分</t>
+  </si>
+  <si>
+    <t>TUEG_PH</t>
+  </si>
+  <si>
+    <t>洞渣PH值</t>
+  </si>
+  <si>
+    <t>TUEG_RATE</t>
+  </si>
+  <si>
+    <t>洞渣利用率</t>
+  </si>
+  <si>
+    <t>WASS</t>
+  </si>
+  <si>
+    <t>弃渣场地</t>
+  </si>
+  <si>
+    <t>WASS_LOCA</t>
+  </si>
+  <si>
+    <t>弃渣场地位置</t>
+  </si>
+  <si>
+    <t>WASS_MILG</t>
+  </si>
+  <si>
+    <t>弃渣场管辖桩号范围</t>
+  </si>
+  <si>
+    <t>WATP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水质信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水质信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_Cl</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氯离子浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_SO4</t>
+  </si>
+  <si>
+    <t>SO4浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_MG</t>
+  </si>
+  <si>
+    <t>Mg浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_NH</t>
+  </si>
+  <si>
+    <t>NH浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_PH</t>
+  </si>
+  <si>
+    <t>pH浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_CO2</t>
+  </si>
+  <si>
+    <t>CO2浓度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,11 +921,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N48"/>
+  <dimension ref="A2:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1817,6 +2223,1507 @@
         <v>96</v>
       </c>
     </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>128</v>
+      </c>
+      <c r="M59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>130</v>
+      </c>
+      <c r="M65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>130</v>
+      </c>
+      <c r="M66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" t="s">
+        <v>130</v>
+      </c>
+      <c r="M67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" t="s">
+        <v>130</v>
+      </c>
+      <c r="M73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" t="s">
+        <v>130</v>
+      </c>
+      <c r="M74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" t="s">
+        <v>149</v>
+      </c>
+      <c r="I76" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2</v>
+      </c>
+      <c r="M77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I79" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" t="s">
+        <v>155</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>128</v>
+      </c>
+      <c r="M82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+      <c r="M83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+      <c r="M84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" t="s">
+        <v>128</v>
+      </c>
+      <c r="M85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G90" t="s">
+        <v>168</v>
+      </c>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+      <c r="M90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" t="s">
+        <v>170</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" t="s">
+        <v>172</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+      <c r="M93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" t="s">
+        <v>174</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>175</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G101" t="s">
+        <v>178</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>175</v>
+      </c>
+      <c r="G102" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>180</v>
+      </c>
+      <c r="F104" t="s">
+        <v>181</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2</v>
+      </c>
+      <c r="M105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" t="s">
+        <v>184</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>180</v>
+      </c>
+      <c r="G107" t="s">
+        <v>186</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>188</v>
+      </c>
+      <c r="I108" t="s">
+        <v>189</v>
+      </c>
+      <c r="M108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" t="s">
+        <v>180</v>
+      </c>
+      <c r="G109" t="s">
+        <v>191</v>
+      </c>
+      <c r="I109" t="s">
+        <v>192</v>
+      </c>
+      <c r="M109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" t="s">
+        <v>194</v>
+      </c>
+      <c r="F111" t="s">
+        <v>195</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2</v>
+      </c>
+      <c r="M111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2</v>
+      </c>
+      <c r="M112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" t="s">
+        <v>198</v>
+      </c>
+      <c r="I113" t="s">
+        <v>130</v>
+      </c>
+      <c r="M113" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" t="s">
+        <v>200</v>
+      </c>
+      <c r="I114" t="s">
+        <v>130</v>
+      </c>
+      <c r="M114" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115" t="s">
+        <v>194</v>
+      </c>
+      <c r="G115" t="s">
+        <v>174</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="G118" t="s">
+        <v>204</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2</v>
+      </c>
+      <c r="M119" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
+      <c r="G120" t="s">
+        <v>174</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2</v>
+      </c>
+      <c r="M120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" t="s">
+        <v>202</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2</v>
+      </c>
+      <c r="M121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" t="s">
+        <v>210</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2</v>
+      </c>
+      <c r="M122" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" t="s">
+        <v>208</v>
+      </c>
+      <c r="G123" t="s">
+        <v>112</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" t="s">
+        <v>208</v>
+      </c>
+      <c r="G124" t="s">
+        <v>108</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2</v>
+      </c>
+      <c r="M124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" t="s">
+        <v>208</v>
+      </c>
+      <c r="G125" t="s">
+        <v>212</v>
+      </c>
+      <c r="I125" t="s">
+        <v>213</v>
+      </c>
+      <c r="M125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" t="s">
+        <v>208</v>
+      </c>
+      <c r="G126" t="s">
+        <v>215</v>
+      </c>
+      <c r="I126" t="s">
+        <v>213</v>
+      </c>
+      <c r="M126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" t="s">
+        <v>208</v>
+      </c>
+      <c r="G127" t="s">
+        <v>217</v>
+      </c>
+      <c r="I127" t="s">
+        <v>213</v>
+      </c>
+      <c r="M127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" t="s">
+        <v>208</v>
+      </c>
+      <c r="G128" t="s">
+        <v>219</v>
+      </c>
+      <c r="I128" t="s">
+        <v>213</v>
+      </c>
+      <c r="M128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129" t="s">
+        <v>208</v>
+      </c>
+      <c r="G129" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" t="s">
+        <v>213</v>
+      </c>
+      <c r="M129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G130" t="s">
+        <v>223</v>
+      </c>
+      <c r="I130" t="s">
+        <v>213</v>
+      </c>
+      <c r="M130" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" t="s">
+        <v>103</v>
+      </c>
+      <c r="D131" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" t="s">
+        <v>105</v>
+      </c>
+      <c r="G131" t="s">
+        <v>106</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A27EE9-503E-4DA3-A980-64692A9D0734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065F998-E613-4421-89AC-FE9488FFD1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="227">
   <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,417 @@
   </si>
   <si>
     <t>监测信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_TOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压水ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDPH_ID</t>
+  </si>
+  <si>
+    <t>钻孔ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCA_ID</t>
+  </si>
+  <si>
+    <t>位置ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRA_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地层ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_TOPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_STAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察点深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_WATT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含水层名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_LAYE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水量数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONW_OBST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察时间‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCG</t>
+  </si>
+  <si>
+    <t>承压水埋深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJ_ID</t>
+  </si>
+  <si>
+    <t>工程ID</t>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X坐标</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Y坐标</t>
+  </si>
+  <si>
+    <t>DOCG_DEPT</t>
+  </si>
+  <si>
+    <t>埋深</t>
+  </si>
+  <si>
+    <t>DOCG_MEMO</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>关联文件索引</t>
+  </si>
+  <si>
+    <t>DOUG</t>
+  </si>
+  <si>
+    <t>潜水埋深</t>
+  </si>
+  <si>
+    <t>DOUG_DEPT</t>
+  </si>
+  <si>
+    <t>DOUG_MEMO</t>
+  </si>
+  <si>
+    <t>GWSO</t>
+  </si>
+  <si>
+    <t>地下水质</t>
+  </si>
+  <si>
+    <t>GWSO_METI</t>
+  </si>
+  <si>
+    <t>测量时间</t>
+  </si>
+  <si>
+    <t>LOCA_Z</t>
+  </si>
+  <si>
+    <t>Z坐标</t>
+  </si>
+  <si>
+    <t>GWSO_POLL</t>
+  </si>
+  <si>
+    <t>污染物名称</t>
+  </si>
+  <si>
+    <t>GWSO_CONT</t>
+  </si>
+  <si>
+    <t>污染物含量</t>
+  </si>
+  <si>
+    <t>IMAR</t>
+  </si>
+  <si>
+    <t>重要建筑物</t>
+  </si>
+  <si>
+    <t>IMAR_NAME</t>
+  </si>
+  <si>
+    <t>建筑物名称</t>
+  </si>
+  <si>
+    <t>IMAR_USE</t>
+  </si>
+  <si>
+    <t>建筑物用途</t>
+  </si>
+  <si>
+    <t>IMAR_NRRV</t>
+  </si>
+  <si>
+    <t>距离最近的河流</t>
+  </si>
+  <si>
+    <t>LOCA_WATA</t>
+  </si>
+  <si>
+    <t>地下水位</t>
+  </si>
+  <si>
+    <t>LOCA_DEOG</t>
+  </si>
+  <si>
+    <t>地下水埋深</t>
+  </si>
+  <si>
+    <t>IMAR_REM</t>
+  </si>
+  <si>
+    <t>PLRO</t>
+  </si>
+  <si>
+    <t>植被根系</t>
+  </si>
+  <si>
+    <t>PLRO_NAME</t>
+  </si>
+  <si>
+    <t>植被名称</t>
+  </si>
+  <si>
+    <t>PLRO_LEOR</t>
+  </si>
+  <si>
+    <t>根长</t>
+  </si>
+  <si>
+    <t>PLRO_TYPE</t>
+  </si>
+  <si>
+    <t>根系类型</t>
+  </si>
+  <si>
+    <t>PLRO_USE</t>
+  </si>
+  <si>
+    <t>根系作用</t>
+  </si>
+  <si>
+    <t>PLRO_REM</t>
+  </si>
+  <si>
+    <t>SWQU</t>
+  </si>
+  <si>
+    <t>地表水质</t>
+  </si>
+  <si>
+    <t>SWQU_METI</t>
+  </si>
+  <si>
+    <t>SWQU_POLL</t>
+  </si>
+  <si>
+    <t>SWQU_CONT</t>
+  </si>
+  <si>
+    <t>SWSO</t>
+  </si>
+  <si>
+    <t>地表水源</t>
+  </si>
+  <si>
+    <t>SWSO_NAME</t>
+  </si>
+  <si>
+    <t>水源名称</t>
+  </si>
+  <si>
+    <t>SWSO_LOCA</t>
+  </si>
+  <si>
+    <t>地理位置</t>
+  </si>
+  <si>
+    <t>SWSO_SYS</t>
+  </si>
+  <si>
+    <t>所属水系</t>
+  </si>
+  <si>
+    <t>SWSO_LENG</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水源长度</t>
+  </si>
+  <si>
+    <t>SWSO_CFAR</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>汇流面积</t>
+  </si>
+  <si>
+    <t>TUEG</t>
+  </si>
+  <si>
+    <t>开挖洞渣</t>
+  </si>
+  <si>
+    <t>TUEG_COMP</t>
+  </si>
+  <si>
+    <t>洞渣主要成分</t>
+  </si>
+  <si>
+    <t>TUEG_PH</t>
+  </si>
+  <si>
+    <t>洞渣PH值</t>
+  </si>
+  <si>
+    <t>TUEG_RATE</t>
+  </si>
+  <si>
+    <t>洞渣利用率</t>
+  </si>
+  <si>
+    <t>WASS</t>
+  </si>
+  <si>
+    <t>弃渣场地</t>
+  </si>
+  <si>
+    <t>WASS_LOCA</t>
+  </si>
+  <si>
+    <t>弃渣场地位置</t>
+  </si>
+  <si>
+    <t>WASS_MILG</t>
+  </si>
+  <si>
+    <t>弃渣场管辖桩号范围</t>
+  </si>
+  <si>
+    <t>WATP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水质信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水质信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_Cl</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氯离子浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_SO4</t>
+  </si>
+  <si>
+    <t>SO4浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_MG</t>
+  </si>
+  <si>
+    <t>Mg浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_NH</t>
+  </si>
+  <si>
+    <t>NH浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_PH</t>
+  </si>
+  <si>
+    <t>pH浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_CO2</t>
+  </si>
+  <si>
+    <t>CO2浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATP_CORR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,11 +929,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N48"/>
+  <dimension ref="A2:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1817,6 +2231,1492 @@
         <v>96</v>
       </c>
     </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>128</v>
+      </c>
+      <c r="M59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>130</v>
+      </c>
+      <c r="M65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>130</v>
+      </c>
+      <c r="M66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" t="s">
+        <v>130</v>
+      </c>
+      <c r="M67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>130</v>
+      </c>
+      <c r="M72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" t="s">
+        <v>130</v>
+      </c>
+      <c r="M73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" t="s">
+        <v>130</v>
+      </c>
+      <c r="M74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" t="s">
+        <v>149</v>
+      </c>
+      <c r="I76" t="s">
+        <v>130</v>
+      </c>
+      <c r="M76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" t="s">
+        <v>141</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2</v>
+      </c>
+      <c r="M77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" t="s">
+        <v>153</v>
+      </c>
+      <c r="I79" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" t="s">
+        <v>155</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>128</v>
+      </c>
+      <c r="M82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+      <c r="M83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+      <c r="M84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" t="s">
+        <v>128</v>
+      </c>
+      <c r="M85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>164</v>
+      </c>
+      <c r="G90" t="s">
+        <v>168</v>
+      </c>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+      <c r="M90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" t="s">
+        <v>170</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" t="s">
+        <v>172</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+      <c r="M93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" t="s">
+        <v>174</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>175</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G101" t="s">
+        <v>178</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>175</v>
+      </c>
+      <c r="G102" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>180</v>
+      </c>
+      <c r="F104" t="s">
+        <v>181</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2</v>
+      </c>
+      <c r="M105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" t="s">
+        <v>184</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>180</v>
+      </c>
+      <c r="G107" t="s">
+        <v>186</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>188</v>
+      </c>
+      <c r="I108" t="s">
+        <v>189</v>
+      </c>
+      <c r="M108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" t="s">
+        <v>180</v>
+      </c>
+      <c r="G109" t="s">
+        <v>191</v>
+      </c>
+      <c r="I109" t="s">
+        <v>192</v>
+      </c>
+      <c r="M109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" t="s">
+        <v>194</v>
+      </c>
+      <c r="F111" t="s">
+        <v>195</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2</v>
+      </c>
+      <c r="M111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2</v>
+      </c>
+      <c r="M112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" t="s">
+        <v>198</v>
+      </c>
+      <c r="I113" t="s">
+        <v>130</v>
+      </c>
+      <c r="M113" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" t="s">
+        <v>200</v>
+      </c>
+      <c r="I114" t="s">
+        <v>130</v>
+      </c>
+      <c r="M114" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115" t="s">
+        <v>194</v>
+      </c>
+      <c r="G115" t="s">
+        <v>174</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="G118" t="s">
+        <v>204</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2</v>
+      </c>
+      <c r="M119" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
+      <c r="G120" t="s">
+        <v>174</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2</v>
+      </c>
+      <c r="M120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" t="s">
+        <v>202</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2</v>
+      </c>
+      <c r="M121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" t="s">
+        <v>210</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2</v>
+      </c>
+      <c r="M122" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" t="s">
+        <v>208</v>
+      </c>
+      <c r="G123" t="s">
+        <v>112</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" t="s">
+        <v>208</v>
+      </c>
+      <c r="G124" t="s">
+        <v>108</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2</v>
+      </c>
+      <c r="M124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" t="s">
+        <v>208</v>
+      </c>
+      <c r="G125" t="s">
+        <v>212</v>
+      </c>
+      <c r="I125" t="s">
+        <v>213</v>
+      </c>
+      <c r="M125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" t="s">
+        <v>208</v>
+      </c>
+      <c r="G126" t="s">
+        <v>215</v>
+      </c>
+      <c r="I126" t="s">
+        <v>213</v>
+      </c>
+      <c r="M126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" t="s">
+        <v>208</v>
+      </c>
+      <c r="G127" t="s">
+        <v>217</v>
+      </c>
+      <c r="I127" t="s">
+        <v>213</v>
+      </c>
+      <c r="M127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" t="s">
+        <v>208</v>
+      </c>
+      <c r="G128" t="s">
+        <v>219</v>
+      </c>
+      <c r="I128" t="s">
+        <v>213</v>
+      </c>
+      <c r="M128" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129" t="s">
+        <v>208</v>
+      </c>
+      <c r="G129" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" t="s">
+        <v>213</v>
+      </c>
+      <c r="M129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G130" t="s">
+        <v>223</v>
+      </c>
+      <c r="I130" t="s">
+        <v>213</v>
+      </c>
+      <c r="M130" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" t="s">
+        <v>208</v>
+      </c>
+      <c r="G131" t="s">
+        <v>225</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2</v>
+      </c>
+      <c r="M131" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065F998-E613-4421-89AC-FE9488FFD1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035008D-9910-430F-88EC-6122FB255D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="225">
   <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,14 +849,6 @@
   </si>
   <si>
     <t>CO2浓度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATP_CORR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐蚀性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3704,17 +3696,32 @@
       <c r="A131" t="s">
         <v>102</v>
       </c>
+      <c r="C131" t="s">
+        <v>103</v>
+      </c>
       <c r="D131" t="s">
-        <v>208</v>
+        <v>104</v>
+      </c>
+      <c r="F131" t="s">
+        <v>105</v>
       </c>
       <c r="G131" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
       </c>
       <c r="I131" t="s">
         <v>2</v>
       </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>0</v>
+      </c>
       <c r="M131" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Monitoring.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035008D-9910-430F-88EC-6122FB255D6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFC02A-A584-469D-9134-B1EA56A0CBCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="227">
   <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,6 +849,14 @@
   </si>
   <si>
     <t>CO2浓度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N131"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1230,11 @@
     <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
@@ -1464,6 +1477,9 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
+      <c r="K11" t="s">
+        <v>226</v>
+      </c>
       <c r="M11" t="s">
         <v>33</v>
       </c>
@@ -1484,6 +1500,9 @@
       <c r="I12" t="s">
         <v>26</v>
       </c>
+      <c r="K12" t="s">
+        <v>226</v>
+      </c>
       <c r="M12" t="s">
         <v>32</v>
       </c>
@@ -1504,6 +1523,9 @@
       <c r="I13" t="s">
         <v>26</v>
       </c>
+      <c r="K13" t="s">
+        <v>226</v>
+      </c>
       <c r="M13" t="s">
         <v>35</v>
       </c>
@@ -1524,6 +1546,9 @@
       <c r="I14" t="s">
         <v>26</v>
       </c>
+      <c r="K14" t="s">
+        <v>226</v>
+      </c>
       <c r="M14" t="s">
         <v>37</v>
       </c>
@@ -1547,6 +1572,9 @@
       <c r="I15" t="s">
         <v>26</v>
       </c>
+      <c r="K15" t="s">
+        <v>226</v>
+      </c>
       <c r="M15" t="s">
         <v>40</v>
       </c>
@@ -1567,6 +1595,9 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
+      <c r="K16" t="s">
+        <v>226</v>
+      </c>
       <c r="M16" t="s">
         <v>43</v>
       </c>
@@ -1587,6 +1618,9 @@
       <c r="I17" t="s">
         <v>26</v>
       </c>
+      <c r="K17" t="s">
+        <v>226</v>
+      </c>
       <c r="M17" t="s">
         <v>44</v>
       </c>
@@ -1607,6 +1641,9 @@
       <c r="I18" t="s">
         <v>26</v>
       </c>
+      <c r="K18" t="s">
+        <v>226</v>
+      </c>
       <c r="M18" t="s">
         <v>72</v>
       </c>
@@ -1627,6 +1664,9 @@
       <c r="I19" t="s">
         <v>26</v>
       </c>
+      <c r="K19" t="s">
+        <v>226</v>
+      </c>
       <c r="M19" t="s">
         <v>51</v>
       </c>
@@ -1650,6 +1690,9 @@
       <c r="I20" t="s">
         <v>26</v>
       </c>
+      <c r="K20" t="s">
+        <v>226</v>
+      </c>
       <c r="M20" t="s">
         <v>49</v>
       </c>
@@ -1673,6 +1716,9 @@
       <c r="I21" t="s">
         <v>26</v>
       </c>
+      <c r="K21" t="s">
+        <v>226</v>
+      </c>
       <c r="M21" t="s">
         <v>45</v>
       </c>
@@ -1693,6 +1739,9 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
       <c r="M22" t="s">
         <v>40</v>
       </c>
@@ -1713,6 +1762,9 @@
       <c r="I23" t="s">
         <v>26</v>
       </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
       <c r="M23" t="s">
         <v>58</v>
       </c>
@@ -1733,6 +1785,9 @@
       <c r="I24" t="s">
         <v>26</v>
       </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
       <c r="M24" t="s">
         <v>55</v>
       </c>
@@ -1753,6 +1808,9 @@
       <c r="I25" t="s">
         <v>26</v>
       </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
       <c r="M25" t="s">
         <v>56</v>
       </c>
@@ -1773,6 +1831,9 @@
       <c r="I26" t="s">
         <v>26</v>
       </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
       <c r="M26" t="s">
         <v>67</v>
       </c>
@@ -1793,6 +1854,9 @@
       <c r="I27" t="s">
         <v>26</v>
       </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
       <c r="M27" t="s">
         <v>60</v>
       </c>
@@ -1813,6 +1877,9 @@
       <c r="I28" t="s">
         <v>26</v>
       </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
       <c r="M28" t="s">
         <v>63</v>
       </c>
@@ -1833,6 +1900,9 @@
       <c r="I29" t="s">
         <v>26</v>
       </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
       <c r="M29" t="s">
         <v>37</v>
       </c>
@@ -1853,6 +1923,9 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
       <c r="M30" t="s">
         <v>61</v>
       </c>
@@ -1873,6 +1946,9 @@
       <c r="I31" t="s">
         <v>26</v>
       </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
       <c r="M31" t="s">
         <v>64</v>
       </c>
@@ -1896,6 +1972,9 @@
       <c r="I32" t="s">
         <v>26</v>
       </c>
+      <c r="K32" t="s">
+        <v>226</v>
+      </c>
       <c r="M32" t="s">
         <v>70</v>
       </c>
@@ -1916,6 +1995,9 @@
       <c r="I33" t="s">
         <v>26</v>
       </c>
+      <c r="K33" t="s">
+        <v>226</v>
+      </c>
       <c r="M33" t="s">
         <v>45</v>
       </c>
@@ -1936,6 +2018,9 @@
       <c r="I34" t="s">
         <v>26</v>
       </c>
+      <c r="K34" t="s">
+        <v>226</v>
+      </c>
       <c r="M34" t="s">
         <v>90</v>
       </c>
@@ -1956,6 +2041,9 @@
       <c r="I35" t="s">
         <v>26</v>
       </c>
+      <c r="K35" t="s">
+        <v>226</v>
+      </c>
       <c r="M35" t="s">
         <v>74</v>
       </c>
@@ -1976,6 +2064,9 @@
       <c r="I36" t="s">
         <v>26</v>
       </c>
+      <c r="K36" t="s">
+        <v>226</v>
+      </c>
       <c r="M36" t="s">
         <v>76</v>
       </c>
@@ -1996,6 +2087,9 @@
       <c r="I37" t="s">
         <v>81</v>
       </c>
+      <c r="K37" t="s">
+        <v>226</v>
+      </c>
       <c r="M37" t="s">
         <v>78</v>
       </c>
@@ -2016,6 +2110,9 @@
       <c r="I38" t="s">
         <v>81</v>
       </c>
+      <c r="K38" t="s">
+        <v>226</v>
+      </c>
       <c r="M38" t="s">
         <v>80</v>
       </c>
@@ -2036,6 +2133,9 @@
       <c r="I39" t="s">
         <v>26</v>
       </c>
+      <c r="K39" t="s">
+        <v>226</v>
+      </c>
       <c r="M39" t="s">
         <v>93</v>
       </c>
@@ -2059,6 +2159,9 @@
       <c r="I40" t="s">
         <v>26</v>
       </c>
+      <c r="K40" t="s">
+        <v>226</v>
+      </c>
       <c r="M40" t="s">
         <v>84</v>
       </c>
@@ -2079,6 +2182,9 @@
       <c r="I41" t="s">
         <v>26</v>
       </c>
+      <c r="K41" t="s">
+        <v>226</v>
+      </c>
       <c r="M41" t="s">
         <v>86</v>
       </c>
@@ -2099,6 +2205,9 @@
       <c r="I42" t="s">
         <v>26</v>
       </c>
+      <c r="K42" t="s">
+        <v>226</v>
+      </c>
       <c r="M42" t="s">
         <v>88</v>
       </c>
@@ -2119,6 +2228,9 @@
       <c r="I43" t="s">
         <v>26</v>
       </c>
+      <c r="K43" t="s">
+        <v>226</v>
+      </c>
       <c r="M43" t="s">
         <v>98</v>
       </c>
@@ -2139,6 +2251,9 @@
       <c r="I44" t="s">
         <v>26</v>
       </c>
+      <c r="K44" t="s">
+        <v>226</v>
+      </c>
       <c r="M44" t="s">
         <v>49</v>
       </c>
@@ -2159,6 +2274,9 @@
       <c r="I45" t="s">
         <v>26</v>
       </c>
+      <c r="K45" t="s">
+        <v>226</v>
+      </c>
       <c r="M45" t="s">
         <v>94</v>
       </c>
@@ -2179,6 +2297,9 @@
       <c r="I46" t="s">
         <v>26</v>
       </c>
+      <c r="K46" t="s">
+        <v>226</v>
+      </c>
       <c r="M46" t="s">
         <v>64</v>
       </c>
@@ -2199,6 +2320,9 @@
       <c r="I47" t="s">
         <v>26</v>
       </c>
+      <c r="K47" t="s">
+        <v>226</v>
+      </c>
       <c r="M47" t="s">
         <v>95</v>
       </c>
@@ -2219,6 +2343,9 @@
       <c r="I48" t="s">
         <v>26</v>
       </c>
+      <c r="K48" t="s">
+        <v>226</v>
+      </c>
       <c r="M48" t="s">
         <v>96</v>
       </c>
@@ -2249,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="M49" t="s">
         <v>107</v>
@@ -2272,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s">
         <v>109</v>
@@ -2294,6 +2421,9 @@
       <c r="I51" t="s">
         <v>2</v>
       </c>
+      <c r="K51" t="s">
+        <v>226</v>
+      </c>
       <c r="M51" t="s">
         <v>111</v>
       </c>
@@ -2314,6 +2444,9 @@
       <c r="I52" t="s">
         <v>2</v>
       </c>
+      <c r="K52" t="s">
+        <v>226</v>
+      </c>
       <c r="M52" t="s">
         <v>113</v>
       </c>
@@ -2334,6 +2467,9 @@
       <c r="I53" t="s">
         <v>2</v>
       </c>
+      <c r="K53" t="s">
+        <v>226</v>
+      </c>
       <c r="M53" t="s">
         <v>115</v>
       </c>
@@ -2354,6 +2490,9 @@
       <c r="I54" t="s">
         <v>2</v>
       </c>
+      <c r="K54" t="s">
+        <v>226</v>
+      </c>
       <c r="M54" t="s">
         <v>117</v>
       </c>
@@ -2374,6 +2513,9 @@
       <c r="I55" t="s">
         <v>2</v>
       </c>
+      <c r="K55" t="s">
+        <v>226</v>
+      </c>
       <c r="M55" t="s">
         <v>119</v>
       </c>
@@ -2394,6 +2536,9 @@
       <c r="I56" t="s">
         <v>2</v>
       </c>
+      <c r="K56" t="s">
+        <v>226</v>
+      </c>
       <c r="M56" t="s">
         <v>121</v>
       </c>
@@ -2415,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="K57" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="M57" t="s">
         <v>123</v>
@@ -2437,6 +2582,9 @@
       <c r="I58" t="s">
         <v>2</v>
       </c>
+      <c r="K58" t="s">
+        <v>226</v>
+      </c>
       <c r="M58" t="s">
         <v>127</v>
       </c>
@@ -2454,6 +2602,9 @@
       <c r="I59" t="s">
         <v>128</v>
       </c>
+      <c r="K59" t="s">
+        <v>226</v>
+      </c>
       <c r="M59" t="s">
         <v>129</v>
       </c>
@@ -2471,6 +2622,9 @@
       <c r="I60" t="s">
         <v>130</v>
       </c>
+      <c r="K60" t="s">
+        <v>226</v>
+      </c>
       <c r="M60" t="s">
         <v>131</v>
       </c>
@@ -2488,6 +2642,9 @@
       <c r="I61" t="s">
         <v>128</v>
       </c>
+      <c r="K61" t="s">
+        <v>226</v>
+      </c>
       <c r="M61" t="s">
         <v>133</v>
       </c>
@@ -2505,6 +2662,9 @@
       <c r="I62" t="s">
         <v>2</v>
       </c>
+      <c r="K62" t="s">
+        <v>226</v>
+      </c>
       <c r="M62" t="s">
         <v>135</v>
       </c>
@@ -2522,6 +2682,9 @@
       <c r="I63" t="s">
         <v>2</v>
       </c>
+      <c r="K63" t="s">
+        <v>226</v>
+      </c>
       <c r="M63" t="s">
         <v>136</v>
       </c>
@@ -2542,6 +2705,9 @@
       <c r="I64" t="s">
         <v>2</v>
       </c>
+      <c r="K64" t="s">
+        <v>226</v>
+      </c>
       <c r="M64" t="s">
         <v>127</v>
       </c>
@@ -2559,6 +2725,9 @@
       <c r="I65" t="s">
         <v>130</v>
       </c>
+      <c r="K65" t="s">
+        <v>226</v>
+      </c>
       <c r="M65" t="s">
         <v>129</v>
       </c>
@@ -2576,6 +2745,9 @@
       <c r="I66" t="s">
         <v>130</v>
       </c>
+      <c r="K66" t="s">
+        <v>226</v>
+      </c>
       <c r="M66" t="s">
         <v>131</v>
       </c>
@@ -2593,6 +2765,9 @@
       <c r="I67" t="s">
         <v>130</v>
       </c>
+      <c r="K67" t="s">
+        <v>226</v>
+      </c>
       <c r="M67" t="s">
         <v>133</v>
       </c>
@@ -2610,6 +2785,9 @@
       <c r="I68" t="s">
         <v>2</v>
       </c>
+      <c r="K68" t="s">
+        <v>226</v>
+      </c>
       <c r="M68" t="s">
         <v>135</v>
       </c>
@@ -2627,6 +2805,9 @@
       <c r="I69" t="s">
         <v>2</v>
       </c>
+      <c r="K69" t="s">
+        <v>226</v>
+      </c>
       <c r="M69" t="s">
         <v>136</v>
       </c>
@@ -2647,6 +2828,9 @@
       <c r="I70" t="s">
         <v>2</v>
       </c>
+      <c r="K70" t="s">
+        <v>226</v>
+      </c>
       <c r="M70" s="3" t="s">
         <v>127</v>
       </c>
@@ -2664,6 +2848,9 @@
       <c r="I71" t="s">
         <v>2</v>
       </c>
+      <c r="K71" t="s">
+        <v>226</v>
+      </c>
       <c r="M71" t="s">
         <v>144</v>
       </c>
@@ -2681,6 +2868,9 @@
       <c r="I72" t="s">
         <v>130</v>
       </c>
+      <c r="K72" t="s">
+        <v>226</v>
+      </c>
       <c r="M72" t="s">
         <v>129</v>
       </c>
@@ -2698,6 +2888,9 @@
       <c r="I73" t="s">
         <v>130</v>
       </c>
+      <c r="K73" t="s">
+        <v>226</v>
+      </c>
       <c r="M73" t="s">
         <v>131</v>
       </c>
@@ -2715,6 +2908,9 @@
       <c r="I74" t="s">
         <v>130</v>
       </c>
+      <c r="K74" t="s">
+        <v>226</v>
+      </c>
       <c r="M74" t="s">
         <v>146</v>
       </c>
@@ -2732,6 +2928,9 @@
       <c r="I75" t="s">
         <v>2</v>
       </c>
+      <c r="K75" t="s">
+        <v>226</v>
+      </c>
       <c r="M75" t="s">
         <v>148</v>
       </c>
@@ -2749,6 +2948,9 @@
       <c r="I76" t="s">
         <v>130</v>
       </c>
+      <c r="K76" t="s">
+        <v>226</v>
+      </c>
       <c r="M76" t="s">
         <v>150</v>
       </c>
@@ -2766,6 +2968,9 @@
       <c r="I77" t="s">
         <v>2</v>
       </c>
+      <c r="K77" t="s">
+        <v>226</v>
+      </c>
       <c r="M77" t="s">
         <v>136</v>
       </c>
@@ -2786,6 +2991,9 @@
       <c r="I78" t="s">
         <v>2</v>
       </c>
+      <c r="K78" t="s">
+        <v>226</v>
+      </c>
       <c r="M78" t="s">
         <v>127</v>
       </c>
@@ -2803,6 +3011,9 @@
       <c r="I79" t="s">
         <v>2</v>
       </c>
+      <c r="K79" t="s">
+        <v>226</v>
+      </c>
       <c r="M79" t="s">
         <v>154</v>
       </c>
@@ -2820,6 +3031,9 @@
       <c r="I80" t="s">
         <v>2</v>
       </c>
+      <c r="K80" t="s">
+        <v>226</v>
+      </c>
       <c r="M80" t="s">
         <v>156</v>
       </c>
@@ -2837,6 +3051,9 @@
       <c r="I81" t="s">
         <v>2</v>
       </c>
+      <c r="K81" t="s">
+        <v>226</v>
+      </c>
       <c r="M81" t="s">
         <v>158</v>
       </c>
@@ -2854,6 +3071,9 @@
       <c r="I82" t="s">
         <v>128</v>
       </c>
+      <c r="K82" t="s">
+        <v>226</v>
+      </c>
       <c r="M82" t="s">
         <v>129</v>
       </c>
@@ -2871,6 +3091,9 @@
       <c r="I83" t="s">
         <v>128</v>
       </c>
+      <c r="K83" t="s">
+        <v>226</v>
+      </c>
       <c r="M83" t="s">
         <v>131</v>
       </c>
@@ -2888,6 +3111,9 @@
       <c r="I84" t="s">
         <v>128</v>
       </c>
+      <c r="K84" t="s">
+        <v>226</v>
+      </c>
       <c r="M84" t="s">
         <v>160</v>
       </c>
@@ -2905,6 +3131,9 @@
       <c r="I85" t="s">
         <v>128</v>
       </c>
+      <c r="K85" t="s">
+        <v>226</v>
+      </c>
       <c r="M85" t="s">
         <v>162</v>
       </c>
@@ -2922,6 +3151,9 @@
       <c r="I86" t="s">
         <v>2</v>
       </c>
+      <c r="K86" t="s">
+        <v>226</v>
+      </c>
       <c r="M86" t="s">
         <v>135</v>
       </c>
@@ -2939,6 +3171,9 @@
       <c r="I87" t="s">
         <v>2</v>
       </c>
+      <c r="K87" t="s">
+        <v>226</v>
+      </c>
       <c r="M87" t="s">
         <v>136</v>
       </c>
@@ -2959,6 +3194,9 @@
       <c r="I88" t="s">
         <v>2</v>
       </c>
+      <c r="K88" t="s">
+        <v>226</v>
+      </c>
       <c r="M88" t="s">
         <v>127</v>
       </c>
@@ -2976,6 +3214,9 @@
       <c r="I89" t="s">
         <v>2</v>
       </c>
+      <c r="K89" t="s">
+        <v>226</v>
+      </c>
       <c r="M89" t="s">
         <v>167</v>
       </c>
@@ -2993,6 +3234,9 @@
       <c r="I90" t="s">
         <v>130</v>
       </c>
+      <c r="K90" t="s">
+        <v>226</v>
+      </c>
       <c r="M90" t="s">
         <v>169</v>
       </c>
@@ -3010,6 +3254,9 @@
       <c r="I91" t="s">
         <v>2</v>
       </c>
+      <c r="K91" t="s">
+        <v>226</v>
+      </c>
       <c r="M91" t="s">
         <v>171</v>
       </c>
@@ -3027,6 +3274,9 @@
       <c r="I92" t="s">
         <v>2</v>
       </c>
+      <c r="K92" t="s">
+        <v>226</v>
+      </c>
       <c r="M92" t="s">
         <v>173</v>
       </c>
@@ -3044,6 +3294,9 @@
       <c r="I93" t="s">
         <v>130</v>
       </c>
+      <c r="K93" t="s">
+        <v>226</v>
+      </c>
       <c r="M93" t="s">
         <v>129</v>
       </c>
@@ -3061,6 +3314,9 @@
       <c r="I94" t="s">
         <v>130</v>
       </c>
+      <c r="K94" t="s">
+        <v>226</v>
+      </c>
       <c r="M94" t="s">
         <v>131</v>
       </c>
@@ -3078,6 +3334,9 @@
       <c r="I95" t="s">
         <v>2</v>
       </c>
+      <c r="K95" t="s">
+        <v>226</v>
+      </c>
       <c r="M95" t="s">
         <v>135</v>
       </c>
@@ -3095,6 +3354,9 @@
       <c r="I96" t="s">
         <v>2</v>
       </c>
+      <c r="K96" t="s">
+        <v>226</v>
+      </c>
       <c r="M96" t="s">
         <v>136</v>
       </c>
@@ -3115,6 +3377,9 @@
       <c r="I97" t="s">
         <v>2</v>
       </c>
+      <c r="K97" t="s">
+        <v>226</v>
+      </c>
       <c r="M97" t="s">
         <v>127</v>
       </c>
@@ -3132,6 +3397,9 @@
       <c r="I98" t="s">
         <v>2</v>
       </c>
+      <c r="K98" t="s">
+        <v>226</v>
+      </c>
       <c r="M98" t="s">
         <v>144</v>
       </c>
@@ -3149,6 +3417,9 @@
       <c r="I99" t="s">
         <v>2</v>
       </c>
+      <c r="K99" t="s">
+        <v>226</v>
+      </c>
       <c r="M99" t="s">
         <v>129</v>
       </c>
@@ -3166,6 +3437,9 @@
       <c r="I100" t="s">
         <v>2</v>
       </c>
+      <c r="K100" t="s">
+        <v>226</v>
+      </c>
       <c r="M100" t="s">
         <v>131</v>
       </c>
@@ -3183,6 +3457,9 @@
       <c r="I101" t="s">
         <v>2</v>
       </c>
+      <c r="K101" t="s">
+        <v>226</v>
+      </c>
       <c r="M101" t="s">
         <v>148</v>
       </c>
@@ -3200,6 +3477,9 @@
       <c r="I102" t="s">
         <v>2</v>
       </c>
+      <c r="K102" t="s">
+        <v>226</v>
+      </c>
       <c r="M102" t="s">
         <v>150</v>
       </c>
@@ -3217,6 +3497,9 @@
       <c r="I103" t="s">
         <v>2</v>
       </c>
+      <c r="K103" t="s">
+        <v>226</v>
+      </c>
       <c r="M103" t="s">
         <v>136</v>
       </c>
@@ -3237,6 +3520,9 @@
       <c r="I104" t="s">
         <v>2</v>
       </c>
+      <c r="K104" t="s">
+        <v>226</v>
+      </c>
       <c r="M104" t="s">
         <v>127</v>
       </c>
@@ -3254,6 +3540,9 @@
       <c r="I105" t="s">
         <v>2</v>
       </c>
+      <c r="K105" t="s">
+        <v>226</v>
+      </c>
       <c r="M105" t="s">
         <v>183</v>
       </c>
@@ -3271,6 +3560,9 @@
       <c r="I106" t="s">
         <v>2</v>
       </c>
+      <c r="K106" t="s">
+        <v>226</v>
+      </c>
       <c r="M106" t="s">
         <v>185</v>
       </c>
@@ -3288,6 +3580,9 @@
       <c r="I107" t="s">
         <v>2</v>
       </c>
+      <c r="K107" t="s">
+        <v>226</v>
+      </c>
       <c r="M107" t="s">
         <v>187</v>
       </c>
@@ -3305,6 +3600,9 @@
       <c r="I108" t="s">
         <v>189</v>
       </c>
+      <c r="K108" t="s">
+        <v>226</v>
+      </c>
       <c r="M108" t="s">
         <v>190</v>
       </c>
@@ -3322,6 +3620,9 @@
       <c r="I109" t="s">
         <v>192</v>
       </c>
+      <c r="K109" t="s">
+        <v>226</v>
+      </c>
       <c r="M109" t="s">
         <v>193</v>
       </c>
@@ -3339,6 +3640,9 @@
       <c r="I110" t="s">
         <v>2</v>
       </c>
+      <c r="K110" t="s">
+        <v>226</v>
+      </c>
       <c r="M110" t="s">
         <v>136</v>
       </c>
@@ -3359,6 +3663,9 @@
       <c r="I111" t="s">
         <v>2</v>
       </c>
+      <c r="K111" t="s">
+        <v>226</v>
+      </c>
       <c r="M111" t="s">
         <v>127</v>
       </c>
@@ -3376,6 +3683,9 @@
       <c r="I112" t="s">
         <v>2</v>
       </c>
+      <c r="K112" t="s">
+        <v>226</v>
+      </c>
       <c r="M112" t="s">
         <v>197</v>
       </c>
@@ -3393,6 +3703,9 @@
       <c r="I113" t="s">
         <v>130</v>
       </c>
+      <c r="K113" t="s">
+        <v>226</v>
+      </c>
       <c r="M113" t="s">
         <v>199</v>
       </c>
@@ -3410,6 +3723,9 @@
       <c r="I114" t="s">
         <v>130</v>
       </c>
+      <c r="K114" t="s">
+        <v>226</v>
+      </c>
       <c r="M114" t="s">
         <v>201</v>
       </c>
@@ -3427,6 +3743,9 @@
       <c r="I115" t="s">
         <v>2</v>
       </c>
+      <c r="K115" t="s">
+        <v>226</v>
+      </c>
       <c r="M115" t="s">
         <v>135</v>
       </c>
@@ -3444,6 +3763,9 @@
       <c r="I116" t="s">
         <v>2</v>
       </c>
+      <c r="K116" t="s">
+        <v>226</v>
+      </c>
       <c r="M116" t="s">
         <v>136</v>
       </c>
@@ -3464,6 +3786,9 @@
       <c r="I117" t="s">
         <v>2</v>
       </c>
+      <c r="K117" t="s">
+        <v>226</v>
+      </c>
       <c r="M117" t="s">
         <v>127</v>
       </c>
@@ -3481,6 +3806,9 @@
       <c r="I118" t="s">
         <v>2</v>
       </c>
+      <c r="K118" t="s">
+        <v>226</v>
+      </c>
       <c r="M118" t="s">
         <v>205</v>
       </c>
@@ -3498,6 +3826,9 @@
       <c r="I119" t="s">
         <v>2</v>
       </c>
+      <c r="K119" t="s">
+        <v>226</v>
+      </c>
       <c r="M119" t="s">
         <v>207</v>
       </c>
@@ -3515,6 +3846,9 @@
       <c r="I120" t="s">
         <v>2</v>
       </c>
+      <c r="K120" t="s">
+        <v>226</v>
+      </c>
       <c r="M120" t="s">
         <v>135</v>
       </c>
@@ -3532,6 +3866,9 @@
       <c r="I121" t="s">
         <v>2</v>
       </c>
+      <c r="K121" t="s">
+        <v>226</v>
+      </c>
       <c r="M121" t="s">
         <v>136</v>
       </c>
@@ -3552,6 +3889,9 @@
       <c r="I122" t="s">
         <v>2</v>
       </c>
+      <c r="K122" t="s">
+        <v>226</v>
+      </c>
       <c r="M122" t="s">
         <v>211</v>
       </c>
@@ -3569,6 +3909,9 @@
       <c r="I123" t="s">
         <v>2</v>
       </c>
+      <c r="K123" t="s">
+        <v>226</v>
+      </c>
       <c r="M123" t="s">
         <v>113</v>
       </c>
@@ -3586,6 +3929,9 @@
       <c r="I124" t="s">
         <v>2</v>
       </c>
+      <c r="K124" t="s">
+        <v>226</v>
+      </c>
       <c r="M124" t="s">
         <v>109</v>
       </c>
@@ -3603,6 +3949,9 @@
       <c r="I125" t="s">
         <v>213</v>
       </c>
+      <c r="K125" t="s">
+        <v>226</v>
+      </c>
       <c r="M125" t="s">
         <v>214</v>
       </c>
@@ -3620,6 +3969,9 @@
       <c r="I126" t="s">
         <v>213</v>
       </c>
+      <c r="K126" t="s">
+        <v>226</v>
+      </c>
       <c r="M126" t="s">
         <v>216</v>
       </c>
@@ -3637,6 +3989,9 @@
       <c r="I127" t="s">
         <v>213</v>
       </c>
+      <c r="K127" t="s">
+        <v>226</v>
+      </c>
       <c r="M127" t="s">
         <v>218</v>
       </c>
@@ -3654,6 +4009,9 @@
       <c r="I128" t="s">
         <v>213</v>
       </c>
+      <c r="K128" t="s">
+        <v>226</v>
+      </c>
       <c r="M128" t="s">
         <v>220</v>
       </c>
@@ -3671,6 +4029,9 @@
       <c r="I129" t="s">
         <v>213</v>
       </c>
+      <c r="K129" t="s">
+        <v>226</v>
+      </c>
       <c r="M129" t="s">
         <v>222</v>
       </c>
@@ -3687,6 +4048,9 @@
       </c>
       <c r="I130" t="s">
         <v>213</v>
+      </c>
+      <c r="K130" t="s">
+        <v>226</v>
       </c>
       <c r="M130" t="s">
         <v>224</v>
